--- a/Week-5-Results/time.xlsx
+++ b/Week-5-Results/time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amyta\OneDrive - Georgia Institute of Technology\Documents\mc-chess\Week-5-Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832C6BA4-A3F3-4EF5-8C25-012936BFE027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34C76BC-554C-4789-AAC2-C37D4A2A9E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="18684" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="372" yWindow="1536" windowWidth="22668" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time" sheetId="1" r:id="rId1"/>
@@ -2897,7 +2897,7 @@
   <dimension ref="A1:K182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H175" activeCellId="1" sqref="H168 H175"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2972,7 +2972,7 @@
         <v>9</v>
       </c>
       <c r="K2">
-        <f>B2/(B2 + C2) * 100</f>
+        <f t="shared" ref="K2:K26" si="0">B2/(B2 + C2) * 100</f>
         <v>45.263157894736842</v>
       </c>
     </row>
@@ -3008,7 +3008,7 @@
         <v>9</v>
       </c>
       <c r="K3">
-        <f>B3/(B3 + C3) * 100</f>
+        <f t="shared" si="0"/>
         <v>53.926701570680621</v>
       </c>
     </row>
@@ -3044,7 +3044,7 @@
         <v>9</v>
       </c>
       <c r="K4">
-        <f>B4/(B4 + C4) * 100</f>
+        <f t="shared" si="0"/>
         <v>42.788461538461533</v>
       </c>
     </row>
@@ -3080,7 +3080,7 @@
         <v>9</v>
       </c>
       <c r="K5">
-        <f>B5/(B5 + C5) * 100</f>
+        <f t="shared" si="0"/>
         <v>46.951219512195117</v>
       </c>
     </row>
@@ -3116,7 +3116,7 @@
         <v>9</v>
       </c>
       <c r="K6">
-        <f>B6/(B6 + C6) * 100</f>
+        <f t="shared" si="0"/>
         <v>49.19786096256685</v>
       </c>
     </row>
@@ -3152,7 +3152,7 @@
         <v>9</v>
       </c>
       <c r="K7">
-        <f>B7/(B7 + C7) * 100</f>
+        <f t="shared" si="0"/>
         <v>49.767441860465119</v>
       </c>
     </row>
@@ -3188,7 +3188,7 @@
         <v>9</v>
       </c>
       <c r="K8">
-        <f>B8/(B8 + C8) * 100</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
         <v>9</v>
       </c>
       <c r="K9">
-        <f>B9/(B9 + C9) * 100</f>
+        <f t="shared" si="0"/>
         <v>51.485148514851488</v>
       </c>
     </row>
@@ -3260,7 +3260,7 @@
         <v>9</v>
       </c>
       <c r="K10">
-        <f>B10/(B10 + C10) * 100</f>
+        <f t="shared" si="0"/>
         <v>52.849740932642483</v>
       </c>
     </row>
@@ -3296,7 +3296,7 @@
         <v>9</v>
       </c>
       <c r="K11">
-        <f>B11/(B11 + C11) * 100</f>
+        <f t="shared" si="0"/>
         <v>47.826086956521742</v>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
         <v>9</v>
       </c>
       <c r="K12">
-        <f>B12/(B12 + C12) * 100</f>
+        <f t="shared" si="0"/>
         <v>49.253731343283583</v>
       </c>
     </row>
@@ -3368,7 +3368,7 @@
         <v>9</v>
       </c>
       <c r="K13">
-        <f>B13/(B13 + C13) * 100</f>
+        <f t="shared" si="0"/>
         <v>48.387096774193552</v>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
         <v>9</v>
       </c>
       <c r="K14">
-        <f>B14/(B14 + C14) * 100</f>
+        <f t="shared" si="0"/>
         <v>45.365853658536587</v>
       </c>
     </row>
@@ -3440,7 +3440,7 @@
         <v>9</v>
       </c>
       <c r="K15">
-        <f>B15/(B15 + C15) * 100</f>
+        <f t="shared" si="0"/>
         <v>44.600938967136152</v>
       </c>
     </row>
@@ -3476,7 +3476,7 @@
         <v>9</v>
       </c>
       <c r="K16">
-        <f>B16/(B16 + C16) * 100</f>
+        <f t="shared" si="0"/>
         <v>52.427184466019419</v>
       </c>
     </row>
@@ -3512,7 +3512,7 @@
         <v>9</v>
       </c>
       <c r="K17">
-        <f>B17/(B17 + C17) * 100</f>
+        <f t="shared" si="0"/>
         <v>45.901639344262293</v>
       </c>
     </row>
@@ -3548,7 +3548,7 @@
         <v>9</v>
       </c>
       <c r="K18">
-        <f>B18/(B18 + C18) * 100</f>
+        <f t="shared" si="0"/>
         <v>45.263157894736842</v>
       </c>
     </row>
@@ -3584,7 +3584,7 @@
         <v>9</v>
       </c>
       <c r="K19">
-        <f>B19/(B19 + C19) * 100</f>
+        <f t="shared" si="0"/>
         <v>49.009900990099013</v>
       </c>
     </row>
@@ -3620,7 +3620,7 @@
         <v>9</v>
       </c>
       <c r="K20">
-        <f>B20/(B20 + C20) * 100</f>
+        <f t="shared" si="0"/>
         <v>58.333333333333336</v>
       </c>
     </row>
@@ -3656,7 +3656,7 @@
         <v>9</v>
       </c>
       <c r="K21">
-        <f>B21/(B21 + C21) * 100</f>
+        <f t="shared" si="0"/>
         <v>52.694610778443121</v>
       </c>
     </row>
@@ -3692,7 +3692,7 @@
         <v>9</v>
       </c>
       <c r="K22">
-        <f>B22/(B22 + C22) * 100</f>
+        <f t="shared" si="0"/>
         <v>46.236559139784944</v>
       </c>
     </row>
@@ -3728,7 +3728,7 @@
         <v>9</v>
       </c>
       <c r="K23">
-        <f>B23/(B23 + C23) * 100</f>
+        <f t="shared" si="0"/>
         <v>43.850267379679138</v>
       </c>
     </row>
@@ -3764,7 +3764,7 @@
         <v>9</v>
       </c>
       <c r="K24">
-        <f>B24/(B24 + C24) * 100</f>
+        <f t="shared" si="0"/>
         <v>49.479166666666671</v>
       </c>
     </row>
@@ -3800,7 +3800,7 @@
         <v>9</v>
       </c>
       <c r="K25">
-        <f>B25/(B25 + C25) * 100</f>
+        <f t="shared" si="0"/>
         <v>49.425287356321839</v>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
         <v>9</v>
       </c>
       <c r="K26">
-        <f>B26/(B26 + C26) * 100</f>
+        <f t="shared" si="0"/>
         <v>44.791666666666671</v>
       </c>
     </row>
@@ -3872,7 +3872,7 @@
         <v>9</v>
       </c>
       <c r="K28">
-        <f>B28/(B28 + C28) * 100</f>
+        <f t="shared" ref="K28:K52" si="1">B28/(B28 + C28) * 100</f>
         <v>49.473684210526315</v>
       </c>
     </row>
@@ -3908,7 +3908,7 @@
         <v>9</v>
       </c>
       <c r="K29">
-        <f>B29/(B29 + C29) * 100</f>
+        <f t="shared" si="1"/>
         <v>44.208037825059101</v>
       </c>
     </row>
@@ -3944,7 +3944,7 @@
         <v>9</v>
       </c>
       <c r="K30">
-        <f>B30/(B30 + C30) * 100</f>
+        <f t="shared" si="1"/>
         <v>46.341463414634148</v>
       </c>
     </row>
@@ -3980,7 +3980,7 @@
         <v>9</v>
       </c>
       <c r="K31">
-        <f>B31/(B31 + C31) * 100</f>
+        <f t="shared" si="1"/>
         <v>51.26903553299492</v>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
         <v>9</v>
       </c>
       <c r="K32">
-        <f>B32/(B32 + C32) * 100</f>
+        <f t="shared" si="1"/>
         <v>50.38363171355499</v>
       </c>
     </row>
@@ -4052,7 +4052,7 @@
         <v>9</v>
       </c>
       <c r="K33">
-        <f>B33/(B33 + C33) * 100</f>
+        <f t="shared" si="1"/>
         <v>48.00936768149883</v>
       </c>
     </row>
@@ -4088,7 +4088,7 @@
         <v>9</v>
       </c>
       <c r="K34">
-        <f>B34/(B34 + C34) * 100</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
     </row>
@@ -4124,7 +4124,7 @@
         <v>9</v>
       </c>
       <c r="K35">
-        <f>B35/(B35 + C35) * 100</f>
+        <f t="shared" si="1"/>
         <v>50.913838120104437</v>
       </c>
     </row>
@@ -4160,7 +4160,7 @@
         <v>9</v>
       </c>
       <c r="K36">
-        <f>B36/(B36 + C36) * 100</f>
+        <f t="shared" si="1"/>
         <v>48.209366391184574</v>
       </c>
     </row>
@@ -4196,7 +4196,7 @@
         <v>9</v>
       </c>
       <c r="K37">
-        <f>B37/(B37 + C37) * 100</f>
+        <f t="shared" si="1"/>
         <v>45.862884160756501</v>
       </c>
     </row>
@@ -4232,7 +4232,7 @@
         <v>9</v>
       </c>
       <c r="K38">
-        <f>B38/(B38 + C38) * 100</f>
+        <f t="shared" si="1"/>
         <v>46.376811594202898</v>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
         <v>9</v>
       </c>
       <c r="K39">
-        <f>B39/(B39 + C39) * 100</f>
+        <f t="shared" si="1"/>
         <v>47.989949748743719</v>
       </c>
     </row>
@@ -4304,7 +4304,7 @@
         <v>9</v>
       </c>
       <c r="K40">
-        <f>B40/(B40 + C40) * 100</f>
+        <f t="shared" si="1"/>
         <v>50.847457627118644</v>
       </c>
     </row>
@@ -4340,7 +4340,7 @@
         <v>9</v>
       </c>
       <c r="K41">
-        <f>B41/(B41 + C41) * 100</f>
+        <f t="shared" si="1"/>
         <v>49.504950495049506</v>
       </c>
     </row>
@@ -4376,7 +4376,7 @@
         <v>9</v>
       </c>
       <c r="K42">
-        <f>B42/(B42 + C42) * 100</f>
+        <f t="shared" si="1"/>
         <v>49.090909090909093</v>
       </c>
     </row>
@@ -4412,7 +4412,7 @@
         <v>9</v>
       </c>
       <c r="K43">
-        <f>B43/(B43 + C43) * 100</f>
+        <f t="shared" si="1"/>
         <v>41.644562334217504</v>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
         <v>9</v>
       </c>
       <c r="K44">
-        <f>B44/(B44 + C44) * 100</f>
+        <f t="shared" si="1"/>
         <v>51.498637602179841</v>
       </c>
     </row>
@@ -4484,7 +4484,7 @@
         <v>9</v>
       </c>
       <c r="K45">
-        <f>B45/(B45 + C45) * 100</f>
+        <f t="shared" si="1"/>
         <v>52.078239608801958</v>
       </c>
     </row>
@@ -4520,7 +4520,7 @@
         <v>9</v>
       </c>
       <c r="K46">
-        <f>B46/(B46 + C46) * 100</f>
+        <f t="shared" si="1"/>
         <v>52.972972972972975</v>
       </c>
     </row>
@@ -4556,7 +4556,7 @@
         <v>9</v>
       </c>
       <c r="K47">
-        <f>B47/(B47 + C47) * 100</f>
+        <f t="shared" si="1"/>
         <v>48.872180451127818</v>
       </c>
     </row>
@@ -4592,7 +4592,7 @@
         <v>9</v>
       </c>
       <c r="K48">
-        <f>B48/(B48 + C48) * 100</f>
+        <f t="shared" si="1"/>
         <v>49.373433583959894</v>
       </c>
     </row>
@@ -4628,7 +4628,7 @@
         <v>9</v>
       </c>
       <c r="K49">
-        <f>B49/(B49 + C49) * 100</f>
+        <f t="shared" si="1"/>
         <v>49.476439790575917</v>
       </c>
     </row>
@@ -4664,7 +4664,7 @@
         <v>9</v>
       </c>
       <c r="K50">
-        <f>B50/(B50 + C50) * 100</f>
+        <f t="shared" si="1"/>
         <v>46.842105263157897</v>
       </c>
     </row>
@@ -4700,7 +4700,7 @@
         <v>9</v>
       </c>
       <c r="K51">
-        <f>B51/(B51 + C51) * 100</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
@@ -4736,7 +4736,7 @@
         <v>9</v>
       </c>
       <c r="K52">
-        <f>B52/(B52 + C52) * 100</f>
+        <f t="shared" si="1"/>
         <v>44.059405940594061</v>
       </c>
     </row>
@@ -4772,7 +4772,7 @@
         <v>9</v>
       </c>
       <c r="K54">
-        <f>B54/(B54 + C54) * 100</f>
+        <f t="shared" ref="K54:K78" si="2">B54/(B54 + C54) * 100</f>
         <v>48.571428571428569</v>
       </c>
     </row>
@@ -4808,7 +4808,7 @@
         <v>9</v>
       </c>
       <c r="K55">
-        <f>B55/(B55 + C55) * 100</f>
+        <f t="shared" si="2"/>
         <v>47.297297297297298</v>
       </c>
     </row>
@@ -4844,7 +4844,7 @@
         <v>9</v>
       </c>
       <c r="K56">
-        <f>B56/(B56 + C56) * 100</f>
+        <f t="shared" si="2"/>
         <v>48.595041322314046</v>
       </c>
     </row>
@@ -4880,7 +4880,7 @@
         <v>9</v>
       </c>
       <c r="K57">
-        <f>B57/(B57 + C57) * 100</f>
+        <f t="shared" si="2"/>
         <v>47.236180904522612</v>
       </c>
     </row>
@@ -4916,7 +4916,7 @@
         <v>9</v>
       </c>
       <c r="K58">
-        <f>B58/(B58 + C58) * 100</f>
+        <f t="shared" si="2"/>
         <v>42.647058823529413</v>
       </c>
     </row>
@@ -4952,7 +4952,7 @@
         <v>9</v>
       </c>
       <c r="K59">
-        <f>B59/(B59 + C59) * 100</f>
+        <f t="shared" si="2"/>
         <v>46.354166666666671</v>
       </c>
     </row>
@@ -4988,7 +4988,7 @@
         <v>9</v>
       </c>
       <c r="K60">
-        <f>B60/(B60 + C60) * 100</f>
+        <f t="shared" si="2"/>
         <v>48.347826086956516</v>
       </c>
     </row>
@@ -5024,7 +5024,7 @@
         <v>9</v>
       </c>
       <c r="K61">
-        <f>B61/(B61 + C61) * 100</f>
+        <f t="shared" si="2"/>
         <v>47.147651006711413</v>
       </c>
     </row>
@@ -5060,7 +5060,7 @@
         <v>9</v>
       </c>
       <c r="K62">
-        <f>B62/(B62 + C62) * 100</f>
+        <f t="shared" si="2"/>
         <v>45.37671232876712</v>
       </c>
     </row>
@@ -5096,7 +5096,7 @@
         <v>9</v>
       </c>
       <c r="K63">
-        <f>B63/(B63 + C63) * 100</f>
+        <f t="shared" si="2"/>
         <v>47.972972972972968</v>
       </c>
     </row>
@@ -5132,7 +5132,7 @@
         <v>9</v>
       </c>
       <c r="K64">
-        <f>B64/(B64 + C64) * 100</f>
+        <f t="shared" si="2"/>
         <v>51.132686084142399</v>
       </c>
     </row>
@@ -5168,7 +5168,7 @@
         <v>9</v>
       </c>
       <c r="K65">
-        <f>B65/(B65 + C65) * 100</f>
+        <f t="shared" si="2"/>
         <v>45.104895104895107</v>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
         <v>9</v>
       </c>
       <c r="K66">
-        <f>B66/(B66 + C66) * 100</f>
+        <f t="shared" si="2"/>
         <v>48.958333333333329</v>
       </c>
     </row>
@@ -5240,7 +5240,7 @@
         <v>9</v>
       </c>
       <c r="K67">
-        <f>B67/(B67 + C67) * 100</f>
+        <f t="shared" si="2"/>
         <v>45.840130505709624</v>
       </c>
     </row>
@@ -5276,7 +5276,7 @@
         <v>9</v>
       </c>
       <c r="K68">
-        <f>B68/(B68 + C68) * 100</f>
+        <f t="shared" si="2"/>
         <v>50.177935943060504</v>
       </c>
     </row>
@@ -5312,7 +5312,7 @@
         <v>9</v>
       </c>
       <c r="K69">
-        <f>B69/(B69 + C69) * 100</f>
+        <f t="shared" si="2"/>
         <v>51.97934595524957</v>
       </c>
     </row>
@@ -5348,7 +5348,7 @@
         <v>9</v>
       </c>
       <c r="K70">
-        <f>B70/(B70 + C70) * 100</f>
+        <f t="shared" si="2"/>
         <v>51.308900523560212</v>
       </c>
     </row>
@@ -5384,7 +5384,7 @@
         <v>9</v>
       </c>
       <c r="K71">
-        <f>B71/(B71 + C71) * 100</f>
+        <f t="shared" si="2"/>
         <v>53.75</v>
       </c>
     </row>
@@ -5420,7 +5420,7 @@
         <v>9</v>
       </c>
       <c r="K72">
-        <f>B72/(B72 + C72) * 100</f>
+        <f t="shared" si="2"/>
         <v>48.269896193771629</v>
       </c>
     </row>
@@ -5456,7 +5456,7 @@
         <v>9</v>
       </c>
       <c r="K73">
-        <f>B73/(B73 + C73) * 100</f>
+        <f t="shared" si="2"/>
         <v>46.854304635761594</v>
       </c>
     </row>
@@ -5492,7 +5492,7 @@
         <v>9</v>
       </c>
       <c r="K74">
-        <f>B74/(B74 + C74) * 100</f>
+        <f t="shared" si="2"/>
         <v>47.610921501706486</v>
       </c>
     </row>
@@ -5528,7 +5528,7 @@
         <v>9</v>
       </c>
       <c r="K75">
-        <f>B75/(B75 + C75) * 100</f>
+        <f t="shared" si="2"/>
         <v>50.871080139372829</v>
       </c>
     </row>
@@ -5564,7 +5564,7 @@
         <v>9</v>
       </c>
       <c r="K76">
-        <f>B76/(B76 + C76) * 100</f>
+        <f t="shared" si="2"/>
         <v>49.397590361445779</v>
       </c>
     </row>
@@ -5600,7 +5600,7 @@
         <v>9</v>
       </c>
       <c r="K77">
-        <f>B77/(B77 + C77) * 100</f>
+        <f t="shared" si="2"/>
         <v>47.789115646258502</v>
       </c>
     </row>
@@ -5636,7 +5636,7 @@
         <v>9</v>
       </c>
       <c r="K78">
-        <f>B78/(B78 + C78) * 100</f>
+        <f t="shared" si="2"/>
         <v>46.057347670250898</v>
       </c>
     </row>
@@ -5672,7 +5672,7 @@
         <v>9</v>
       </c>
       <c r="K80">
-        <f>B80/(B80 + C80) * 100</f>
+        <f t="shared" ref="K80:K104" si="3">B80/(B80 + C80) * 100</f>
         <v>50.073206442166907</v>
       </c>
     </row>
@@ -5708,7 +5708,7 @@
         <v>9</v>
       </c>
       <c r="K81">
-        <f>B81/(B81 + C81) * 100</f>
+        <f t="shared" si="3"/>
         <v>47.406340057636889</v>
       </c>
     </row>
@@ -5744,7 +5744,7 @@
         <v>9</v>
       </c>
       <c r="K82">
-        <f>B82/(B82 + C82) * 100</f>
+        <f t="shared" si="3"/>
         <v>46.280991735537192</v>
       </c>
     </row>
@@ -5780,7 +5780,7 @@
         <v>9</v>
       </c>
       <c r="K83">
-        <f>B83/(B83 + C83) * 100</f>
+        <f t="shared" si="3"/>
         <v>45.467224546722456</v>
       </c>
     </row>
@@ -5816,7 +5816,7 @@
         <v>9</v>
       </c>
       <c r="K84">
-        <f>B84/(B84 + C84) * 100</f>
+        <f t="shared" si="3"/>
         <v>45.890410958904113</v>
       </c>
     </row>
@@ -5852,7 +5852,7 @@
         <v>9</v>
       </c>
       <c r="K85">
-        <f>B85/(B85 + C85) * 100</f>
+        <f t="shared" si="3"/>
         <v>50.346740638002771</v>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
         <v>9</v>
       </c>
       <c r="K86">
-        <f>B86/(B86 + C86) * 100</f>
+        <f t="shared" si="3"/>
         <v>51.879699248120303</v>
       </c>
     </row>
@@ -5924,7 +5924,7 @@
         <v>9</v>
       </c>
       <c r="K87">
-        <f>B87/(B87 + C87) * 100</f>
+        <f t="shared" si="3"/>
         <v>51.104565537555224</v>
       </c>
     </row>
@@ -5960,7 +5960,7 @@
         <v>9</v>
       </c>
       <c r="K88">
-        <f>B88/(B88 + C88) * 100</f>
+        <f t="shared" si="3"/>
         <v>48.945783132530117</v>
       </c>
     </row>
@@ -5996,7 +5996,7 @@
         <v>9</v>
       </c>
       <c r="K89">
-        <f>B89/(B89 + C89) * 100</f>
+        <f t="shared" si="3"/>
         <v>46.209912536443149</v>
       </c>
     </row>
@@ -6032,7 +6032,7 @@
         <v>9</v>
       </c>
       <c r="K90">
-        <f>B90/(B90 + C90) * 100</f>
+        <f t="shared" si="3"/>
         <v>50.072992700729927</v>
       </c>
     </row>
@@ -6068,7 +6068,7 @@
         <v>9</v>
       </c>
       <c r="K91">
-        <f>B91/(B91 + C91) * 100</f>
+        <f t="shared" si="3"/>
         <v>50.877192982456144</v>
       </c>
     </row>
@@ -6104,7 +6104,7 @@
         <v>9</v>
       </c>
       <c r="K92">
-        <f>B92/(B92 + C92) * 100</f>
+        <f t="shared" si="3"/>
         <v>49.645390070921984</v>
       </c>
     </row>
@@ -6140,7 +6140,7 @@
         <v>9</v>
       </c>
       <c r="K93">
-        <f>B93/(B93 + C93) * 100</f>
+        <f t="shared" si="3"/>
         <v>50.579710144927539</v>
       </c>
     </row>
@@ -6176,7 +6176,7 @@
         <v>9</v>
       </c>
       <c r="K94">
-        <f>B94/(B94 + C94) * 100</f>
+        <f t="shared" si="3"/>
         <v>48.06312769010043</v>
       </c>
     </row>
@@ -6212,7 +6212,7 @@
         <v>9</v>
       </c>
       <c r="K95">
-        <f>B95/(B95 + C95) * 100</f>
+        <f t="shared" si="3"/>
         <v>48.769898697539801</v>
       </c>
     </row>
@@ -6248,7 +6248,7 @@
         <v>9</v>
       </c>
       <c r="K96">
-        <f>B96/(B96 + C96) * 100</f>
+        <f t="shared" si="3"/>
         <v>47.352941176470587</v>
       </c>
     </row>
@@ -6284,7 +6284,7 @@
         <v>9</v>
       </c>
       <c r="K97">
-        <f>B97/(B97 + C97) * 100</f>
+        <f t="shared" si="3"/>
         <v>52.932960893854755</v>
       </c>
     </row>
@@ -6320,7 +6320,7 @@
         <v>9</v>
       </c>
       <c r="K98">
-        <f>B98/(B98 + C98) * 100</f>
+        <f t="shared" si="3"/>
         <v>47.971014492753625</v>
       </c>
     </row>
@@ -6356,7 +6356,7 @@
         <v>9</v>
       </c>
       <c r="K99">
-        <f>B99/(B99 + C99) * 100</f>
+        <f t="shared" si="3"/>
         <v>51.370851370851369</v>
       </c>
     </row>
@@ -6392,7 +6392,7 @@
         <v>9</v>
       </c>
       <c r="K100">
-        <f>B100/(B100 + C100) * 100</f>
+        <f t="shared" si="3"/>
         <v>47.86931818181818</v>
       </c>
     </row>
@@ -6428,7 +6428,7 @@
         <v>9</v>
       </c>
       <c r="K101">
-        <f>B101/(B101 + C101) * 100</f>
+        <f t="shared" si="3"/>
         <v>49.170437405731519</v>
       </c>
     </row>
@@ -6464,7 +6464,7 @@
         <v>9</v>
       </c>
       <c r="K102">
-        <f>B102/(B102 + C102) * 100</f>
+        <f t="shared" si="3"/>
         <v>47.807637906647813</v>
       </c>
     </row>
@@ -6500,7 +6500,7 @@
         <v>9</v>
       </c>
       <c r="K103">
-        <f>B103/(B103 + C103) * 100</f>
+        <f t="shared" si="3"/>
         <v>48.868778280542983</v>
       </c>
     </row>
@@ -6536,7 +6536,7 @@
         <v>9</v>
       </c>
       <c r="K104">
-        <f>B104/(B104 + C104) * 100</f>
+        <f t="shared" si="3"/>
         <v>46.774193548387096</v>
       </c>
     </row>
@@ -6572,7 +6572,7 @@
         <v>9</v>
       </c>
       <c r="K106">
-        <f>B106/(B106 + C106) * 100</f>
+        <f t="shared" ref="K106:K130" si="4">B106/(B106 + C106) * 100</f>
         <v>51.326259946949605</v>
       </c>
     </row>
@@ -6608,7 +6608,7 @@
         <v>9</v>
       </c>
       <c r="K107">
-        <f>B107/(B107 + C107) * 100</f>
+        <f t="shared" si="4"/>
         <v>46.71814671814672</v>
       </c>
     </row>
@@ -6644,7 +6644,7 @@
         <v>9</v>
       </c>
       <c r="K108">
-        <f>B108/(B108 + C108) * 100</f>
+        <f t="shared" si="4"/>
         <v>48.538754764930111</v>
       </c>
     </row>
@@ -6680,7 +6680,7 @@
         <v>9</v>
       </c>
       <c r="K109">
-        <f>B109/(B109 + C109) * 100</f>
+        <f t="shared" si="4"/>
         <v>49.745547073791343</v>
       </c>
     </row>
@@ -6716,7 +6716,7 @@
         <v>9</v>
       </c>
       <c r="K110">
-        <f>B110/(B110 + C110) * 100</f>
+        <f t="shared" si="4"/>
         <v>51.690821256038646</v>
       </c>
     </row>
@@ -6752,7 +6752,7 @@
         <v>9</v>
       </c>
       <c r="K111">
-        <f>B111/(B111 + C111) * 100</f>
+        <f t="shared" si="4"/>
         <v>49.08200734394125</v>
       </c>
     </row>
@@ -6788,7 +6788,7 @@
         <v>9</v>
       </c>
       <c r="K112">
-        <f>B112/(B112 + C112) * 100</f>
+        <f t="shared" si="4"/>
         <v>49.215922798552477</v>
       </c>
     </row>
@@ -6824,7 +6824,7 @@
         <v>9</v>
       </c>
       <c r="K113">
-        <f>B113/(B113 + C113) * 100</f>
+        <f t="shared" si="4"/>
         <v>54.033290653008962</v>
       </c>
     </row>
@@ -6860,7 +6860,7 @@
         <v>9</v>
       </c>
       <c r="K114">
-        <f>B114/(B114 + C114) * 100</f>
+        <f t="shared" si="4"/>
         <v>50.130890052356023</v>
       </c>
     </row>
@@ -6896,7 +6896,7 @@
         <v>9</v>
       </c>
       <c r="K115">
-        <f>B115/(B115 + C115) * 100</f>
+        <f t="shared" si="4"/>
         <v>51.925465838509325</v>
       </c>
     </row>
@@ -6932,7 +6932,7 @@
         <v>9</v>
       </c>
       <c r="K116">
-        <f>B116/(B116 + C116) * 100</f>
+        <f t="shared" si="4"/>
         <v>44.895287958115183</v>
       </c>
     </row>
@@ -6968,7 +6968,7 @@
         <v>9</v>
       </c>
       <c r="K117">
-        <f>B117/(B117 + C117) * 100</f>
+        <f t="shared" si="4"/>
         <v>51.761846901579588</v>
       </c>
     </row>
@@ -7004,7 +7004,7 @@
         <v>9</v>
       </c>
       <c r="K118">
-        <f>B118/(B118 + C118) * 100</f>
+        <f t="shared" si="4"/>
         <v>51.162790697674424</v>
       </c>
     </row>
@@ -7040,7 +7040,7 @@
         <v>9</v>
       </c>
       <c r="K119">
-        <f>B119/(B119 + C119) * 100</f>
+        <f t="shared" si="4"/>
         <v>46.754966887417218</v>
       </c>
     </row>
@@ -7076,7 +7076,7 @@
         <v>9</v>
       </c>
       <c r="K120">
-        <f>B120/(B120 + C120) * 100</f>
+        <f t="shared" si="4"/>
         <v>51.71102661596958</v>
       </c>
     </row>
@@ -7112,7 +7112,7 @@
         <v>9</v>
       </c>
       <c r="K121">
-        <f>B121/(B121 + C121) * 100</f>
+        <f t="shared" si="4"/>
         <v>50.763358778625957</v>
       </c>
     </row>
@@ -7148,7 +7148,7 @@
         <v>9</v>
       </c>
       <c r="K122">
-        <f>B122/(B122 + C122) * 100</f>
+        <f t="shared" si="4"/>
         <v>49.875621890547265</v>
       </c>
     </row>
@@ -7184,7 +7184,7 @@
         <v>9</v>
       </c>
       <c r="K123">
-        <f>B123/(B123 + C123) * 100</f>
+        <f t="shared" si="4"/>
         <v>48.89753566796368</v>
       </c>
     </row>
@@ -7220,7 +7220,7 @@
         <v>9</v>
       </c>
       <c r="K124">
-        <f>B124/(B124 + C124) * 100</f>
+        <f t="shared" si="4"/>
         <v>48.035487959442328</v>
       </c>
     </row>
@@ -7256,7 +7256,7 @@
         <v>9</v>
       </c>
       <c r="K125">
-        <f>B125/(B125 + C125) * 100</f>
+        <f t="shared" si="4"/>
         <v>51.104972375690608</v>
       </c>
     </row>
@@ -7292,7 +7292,7 @@
         <v>9</v>
       </c>
       <c r="K126">
-        <f>B126/(B126 + C126) * 100</f>
+        <f t="shared" si="4"/>
         <v>47.162673392181588</v>
       </c>
     </row>
@@ -7328,7 +7328,7 @@
         <v>9</v>
       </c>
       <c r="K127">
-        <f>B127/(B127 + C127) * 100</f>
+        <f t="shared" si="4"/>
         <v>49.687108886107637</v>
       </c>
     </row>
@@ -7364,7 +7364,7 @@
         <v>9</v>
       </c>
       <c r="K128">
-        <f>B128/(B128 + C128) * 100</f>
+        <f t="shared" si="4"/>
         <v>51.140939597315437</v>
       </c>
     </row>
@@ -7400,7 +7400,7 @@
         <v>9</v>
       </c>
       <c r="K129">
-        <f>B129/(B129 + C129) * 100</f>
+        <f t="shared" si="4"/>
         <v>49.40867279894875</v>
       </c>
     </row>
@@ -7436,7 +7436,7 @@
         <v>9</v>
       </c>
       <c r="K130">
-        <f>B130/(B130 + C130) * 100</f>
+        <f t="shared" si="4"/>
         <v>48.316062176165801</v>
       </c>
     </row>
@@ -7472,7 +7472,7 @@
         <v>9</v>
       </c>
       <c r="K132">
-        <f>B132/(B132 + C132) * 100</f>
+        <f t="shared" ref="K132:K156" si="5">B132/(B132 + C132) * 100</f>
         <v>50.555555555555557</v>
       </c>
     </row>
@@ -7508,7 +7508,7 @@
         <v>9</v>
       </c>
       <c r="K133">
-        <f>B133/(B133 + C133) * 100</f>
+        <f t="shared" si="5"/>
         <v>49.704840613931523</v>
       </c>
     </row>
@@ -7544,7 +7544,7 @@
         <v>9</v>
       </c>
       <c r="K134">
-        <f>B134/(B134 + C134) * 100</f>
+        <f t="shared" si="5"/>
         <v>48.185941043083901</v>
       </c>
     </row>
@@ -7580,7 +7580,7 @@
         <v>9</v>
       </c>
       <c r="K135">
-        <f>B135/(B135 + C135) * 100</f>
+        <f t="shared" si="5"/>
         <v>47.923681257014586</v>
       </c>
     </row>
@@ -7616,7 +7616,7 @@
         <v>9</v>
       </c>
       <c r="K136">
-        <f>B136/(B136 + C136) * 100</f>
+        <f t="shared" si="5"/>
         <v>48.42219804134929</v>
       </c>
     </row>
@@ -7652,7 +7652,7 @@
         <v>9</v>
       </c>
       <c r="K137">
-        <f>B137/(B137 + C137) * 100</f>
+        <f t="shared" si="5"/>
         <v>47.840909090909086</v>
       </c>
     </row>
@@ -7688,7 +7688,7 @@
         <v>9</v>
       </c>
       <c r="K138">
-        <f>B138/(B138 + C138) * 100</f>
+        <f t="shared" si="5"/>
         <v>47.215777262180971</v>
       </c>
     </row>
@@ -7724,7 +7724,7 @@
         <v>9</v>
       </c>
       <c r="K139">
-        <f>B139/(B139 + C139) * 100</f>
+        <f t="shared" si="5"/>
         <v>44.982290436835889</v>
       </c>
     </row>
@@ -7760,7 +7760,7 @@
         <v>9</v>
       </c>
       <c r="K140">
-        <f>B140/(B140 + C140) * 100</f>
+        <f t="shared" si="5"/>
         <v>52.25334957369062</v>
       </c>
     </row>
@@ -7796,7 +7796,7 @@
         <v>9</v>
       </c>
       <c r="K141">
-        <f>B141/(B141 + C141) * 100</f>
+        <f t="shared" si="5"/>
         <v>49.839572192513373</v>
       </c>
     </row>
@@ -7832,7 +7832,7 @@
         <v>9</v>
       </c>
       <c r="K142">
-        <f>B142/(B142 + C142) * 100</f>
+        <f t="shared" si="5"/>
         <v>47.116430903155603</v>
       </c>
     </row>
@@ -7868,7 +7868,7 @@
         <v>9</v>
       </c>
       <c r="K143">
-        <f>B143/(B143 + C143) * 100</f>
+        <f t="shared" si="5"/>
         <v>48.263888888888893</v>
       </c>
     </row>
@@ -7904,7 +7904,7 @@
         <v>9</v>
       </c>
       <c r="K144">
-        <f>B144/(B144 + C144) * 100</f>
+        <f t="shared" si="5"/>
         <v>49.003516998827671</v>
       </c>
     </row>
@@ -7940,7 +7940,7 @@
         <v>9</v>
       </c>
       <c r="K145">
-        <f>B145/(B145 + C145) * 100</f>
+        <f t="shared" si="5"/>
         <v>49.099099099099099</v>
       </c>
     </row>
@@ -7976,7 +7976,7 @@
         <v>9</v>
       </c>
       <c r="K146">
-        <f>B146/(B146 + C146) * 100</f>
+        <f t="shared" si="5"/>
         <v>49.026345933562425</v>
       </c>
     </row>
@@ -8012,7 +8012,7 @@
         <v>9</v>
       </c>
       <c r="K147">
-        <f>B147/(B147 + C147) * 100</f>
+        <f t="shared" si="5"/>
         <v>49.472450175849943</v>
       </c>
     </row>
@@ -8048,7 +8048,7 @@
         <v>9</v>
       </c>
       <c r="K148">
-        <f>B148/(B148 + C148) * 100</f>
+        <f t="shared" si="5"/>
         <v>45.395449620801728</v>
       </c>
     </row>
@@ -8084,7 +8084,7 @@
         <v>9</v>
       </c>
       <c r="K149">
-        <f>B149/(B149 + C149) * 100</f>
+        <f t="shared" si="5"/>
         <v>46.835443037974684</v>
       </c>
     </row>
@@ -8120,7 +8120,7 @@
         <v>9</v>
       </c>
       <c r="K150">
-        <f>B150/(B150 + C150) * 100</f>
+        <f t="shared" si="5"/>
         <v>48.060344827586206</v>
       </c>
     </row>
@@ -8156,7 +8156,7 @@
         <v>9</v>
       </c>
       <c r="K151">
-        <f>B151/(B151 + C151) * 100</f>
+        <f t="shared" si="5"/>
         <v>49.775280898876403</v>
       </c>
     </row>
@@ -8192,7 +8192,7 @@
         <v>9</v>
       </c>
       <c r="K152">
-        <f>B152/(B152 + C152) * 100</f>
+        <f t="shared" si="5"/>
         <v>46.394230769230774</v>
       </c>
     </row>
@@ -8228,7 +8228,7 @@
         <v>9</v>
       </c>
       <c r="K153">
-        <f>B153/(B153 + C153) * 100</f>
+        <f t="shared" si="5"/>
         <v>47.967479674796749</v>
       </c>
     </row>
@@ -8264,7 +8264,7 @@
         <v>9</v>
       </c>
       <c r="K154">
-        <f>B154/(B154 + C154) * 100</f>
+        <f t="shared" si="5"/>
         <v>51.213872832369944</v>
       </c>
     </row>
@@ -8300,7 +8300,7 @@
         <v>9</v>
       </c>
       <c r="K155">
-        <f>B155/(B155 + C155) * 100</f>
+        <f t="shared" si="5"/>
         <v>49.946294307196567</v>
       </c>
     </row>
@@ -8336,7 +8336,7 @@
         <v>9</v>
       </c>
       <c r="K156">
-        <f>B156/(B156 + C156) * 100</f>
+        <f t="shared" si="5"/>
         <v>48.507462686567166</v>
       </c>
     </row>
@@ -8372,7 +8372,7 @@
         <v>9</v>
       </c>
       <c r="K158">
-        <f>B158/(B158 + C158) * 100</f>
+        <f t="shared" ref="K158:K182" si="6">B158/(B158 + C158) * 100</f>
         <v>49.021627188465501</v>
       </c>
     </row>
@@ -8408,7 +8408,7 @@
         <v>9</v>
       </c>
       <c r="K159">
-        <f>B159/(B159 + C159) * 100</f>
+        <f t="shared" si="6"/>
         <v>49.297297297297298</v>
       </c>
     </row>
@@ -8444,7 +8444,7 @@
         <v>9</v>
       </c>
       <c r="K160">
-        <f>B160/(B160 + C160) * 100</f>
+        <f t="shared" si="6"/>
         <v>51.099476439790578</v>
       </c>
     </row>
@@ -8480,7 +8480,7 @@
         <v>9</v>
       </c>
       <c r="K161">
-        <f>B161/(B161 + C161) * 100</f>
+        <f t="shared" si="6"/>
         <v>47.193347193347194</v>
       </c>
     </row>
@@ -8516,7 +8516,7 @@
         <v>9</v>
       </c>
       <c r="K162">
-        <f>B162/(B162 + C162) * 100</f>
+        <f t="shared" si="6"/>
         <v>50.618556701030926</v>
       </c>
     </row>
@@ -8552,7 +8552,7 @@
         <v>9</v>
       </c>
       <c r="K163">
-        <f>B163/(B163 + C163) * 100</f>
+        <f t="shared" si="6"/>
         <v>48.113207547169814</v>
       </c>
     </row>
@@ -8588,7 +8588,7 @@
         <v>9</v>
       </c>
       <c r="K164">
-        <f>B164/(B164 + C164) * 100</f>
+        <f t="shared" si="6"/>
         <v>50.3</v>
       </c>
     </row>
@@ -8624,7 +8624,7 @@
         <v>9</v>
       </c>
       <c r="K165">
-        <f>B165/(B165 + C165) * 100</f>
+        <f t="shared" si="6"/>
         <v>51.983723296032558</v>
       </c>
     </row>
@@ -8660,7 +8660,7 @@
         <v>9</v>
       </c>
       <c r="K166">
-        <f>B166/(B166 + C166) * 100</f>
+        <f t="shared" si="6"/>
         <v>48.417721518987342</v>
       </c>
     </row>
@@ -8696,7 +8696,7 @@
         <v>9</v>
       </c>
       <c r="K167">
-        <f>B167/(B167 + C167) * 100</f>
+        <f t="shared" si="6"/>
         <v>51.917098445595855</v>
       </c>
     </row>
@@ -8732,7 +8732,7 @@
         <v>9</v>
       </c>
       <c r="K168">
-        <f>B168/(B168 + C168) * 100</f>
+        <f t="shared" si="6"/>
         <v>48.882113821138212</v>
       </c>
     </row>
@@ -8768,7 +8768,7 @@
         <v>9</v>
       </c>
       <c r="K169">
-        <f>B169/(B169 + C169) * 100</f>
+        <f t="shared" si="6"/>
         <v>50.696677384780273</v>
       </c>
     </row>
@@ -8804,7 +8804,7 @@
         <v>9</v>
       </c>
       <c r="K170">
-        <f>B170/(B170 + C170) * 100</f>
+        <f t="shared" si="6"/>
         <v>51.287128712871286</v>
       </c>
     </row>
@@ -8840,7 +8840,7 @@
         <v>9</v>
       </c>
       <c r="K171">
-        <f>B171/(B171 + C171) * 100</f>
+        <f t="shared" si="6"/>
         <v>47.432024169184288</v>
       </c>
     </row>
@@ -8876,7 +8876,7 @@
         <v>9</v>
       </c>
       <c r="K172">
-        <f>B172/(B172 + C172) * 100</f>
+        <f t="shared" si="6"/>
         <v>47.274633123689732</v>
       </c>
     </row>
@@ -8912,7 +8912,7 @@
         <v>9</v>
       </c>
       <c r="K173">
-        <f>B173/(B173 + C173) * 100</f>
+        <f t="shared" si="6"/>
         <v>49.266862170087975</v>
       </c>
     </row>
@@ -8948,7 +8948,7 @@
         <v>9</v>
       </c>
       <c r="K174">
-        <f>B174/(B174 + C174) * 100</f>
+        <f t="shared" si="6"/>
         <v>46.176470588235297</v>
       </c>
     </row>
@@ -8984,7 +8984,7 @@
         <v>9</v>
       </c>
       <c r="K175">
-        <f>B175/(B175 + C175) * 100</f>
+        <f t="shared" si="6"/>
         <v>49.746707193515704</v>
       </c>
     </row>
@@ -9020,7 +9020,7 @@
         <v>9</v>
       </c>
       <c r="K176">
-        <f>B176/(B176 + C176) * 100</f>
+        <f t="shared" si="6"/>
         <v>46.97720515361744</v>
       </c>
     </row>
@@ -9056,7 +9056,7 @@
         <v>9</v>
       </c>
       <c r="K177">
-        <f>B177/(B177 + C177) * 100</f>
+        <f t="shared" si="6"/>
         <v>51.184346035015452</v>
       </c>
     </row>
@@ -9092,7 +9092,7 @@
         <v>9</v>
       </c>
       <c r="K178">
-        <f>B178/(B178 + C178) * 100</f>
+        <f t="shared" si="6"/>
         <v>46.881720430107528</v>
       </c>
     </row>
@@ -9128,7 +9128,7 @@
         <v>9</v>
       </c>
       <c r="K179">
-        <f>B179/(B179 + C179) * 100</f>
+        <f t="shared" si="6"/>
         <v>47.228144989339022</v>
       </c>
     </row>
@@ -9164,7 +9164,7 @@
         <v>9</v>
       </c>
       <c r="K180">
-        <f>B180/(B180 + C180) * 100</f>
+        <f t="shared" si="6"/>
         <v>48.191593352883679</v>
       </c>
     </row>
@@ -9200,7 +9200,7 @@
         <v>9</v>
       </c>
       <c r="K181">
-        <f>B181/(B181 + C181) * 100</f>
+        <f t="shared" si="6"/>
         <v>51.315789473684212</v>
       </c>
     </row>
@@ -9236,7 +9236,7 @@
         <v>9</v>
       </c>
       <c r="K182">
-        <f>B182/(B182 + C182) * 100</f>
+        <f t="shared" si="6"/>
         <v>50.500556173526142</v>
       </c>
     </row>
